--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1389.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1389.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.363863479201091</v>
+        <v>1.192002773284912</v>
       </c>
       <c r="B1">
-        <v>2.521951298777693</v>
+        <v>2.289618253707886</v>
       </c>
       <c r="C1">
-        <v>3.097121775993628</v>
+        <v>6.571616172790527</v>
       </c>
       <c r="D1">
-        <v>3.5640122513648</v>
+        <v>2.313052654266357</v>
       </c>
       <c r="E1">
-        <v>1.105901552583354</v>
+        <v>1.188067674636841</v>
       </c>
     </row>
   </sheetData>
